--- a/F_dataset/DUD-E/MP2K1/MP2K1_prepare/MP2K1_inactive.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_prepare/MP2K1_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:T108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6741,1770 +6741,6 @@
       <c r="S108" t="inlineStr"/>
       <c r="T108" t="inlineStr"/>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CHEMBL517956</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@@H]1[C@H](O)CC[C@]2(C)[C@@H]([C@H](C)CCCC(C)C)CC[C@@H]12</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Cc1ccc(O)cc1CC[C@H]1[C@@H]2CC[C@H]([C@H](C)CCCC(C)C)[C@@]2(C)CC[C@H]1O</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>400.65</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2</v>
-      </c>
-      <c r="J109" t="n">
-        <v>8</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3</v>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>48900</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>CHEMBL1926226</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>Inhibition of wild type human MEK1</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>CHEMBL368896</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Cn1c(-c2ccccc2)nc2c(-c3ccc(F)cc3)ncnc21</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Cn1c(-c2ccccc2)nc2c(-c3ccc(F)cc3)ncnc21</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>304.33</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4</v>
-      </c>
-      <c r="L110" t="n">
-        <v>4</v>
-      </c>
-      <c r="M110" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>5</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>CHEMBL830657</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Inhibition of human Mitogen activated protein kinase kinase 1 (MEK1) at 30 uM</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>CHEMBL407373</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>298.32</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4</v>
-      </c>
-      <c r="K111" t="n">
-        <v>3</v>
-      </c>
-      <c r="L111" t="n">
-        <v>3</v>
-      </c>
-      <c r="M111" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q111" t="n">
-        <v>7</v>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>CHEMBL734035</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>CHEMBL4559825</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>631.96</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4</v>
-      </c>
-      <c r="J112" t="n">
-        <v>6</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5</v>
-      </c>
-      <c r="L112" t="n">
-        <v>5</v>
-      </c>
-      <c r="M112" t="n">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q112" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>CHEMBL4313428</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>Inhibition of human MEK1 at 10 uM using ERK2 as substrate by [gamma-33P]-ATP assay relative to control</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>9</v>
-      </c>
-      <c r="J113" t="n">
-        <v>2</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>CHEMBL1019622</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>Inhibition of MAP2K1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>CHEMBL388088</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>CCOC(=O)Cn1c(=O)sn(C)c1=O</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>CCOC(=O)Cn1c(=O)sn(C)c1=O</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>218.23</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q114" t="n">
-        <v>19</v>
-      </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>CHEMBL920009</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1K at 10 uM</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>CHEMBL1235213</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>CCOc1ccc(Nc2c(C)c(N[C@H]3CCCNC3)nc3ccnn23)cc1</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>366.47</v>
-      </c>
-      <c r="H115" t="n">
-        <v>3</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4</v>
-      </c>
-      <c r="L115" t="n">
-        <v>3</v>
-      </c>
-      <c r="M115" t="n">
-        <v>75.51000000000001</v>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q115" t="n">
-        <v>19</v>
-      </c>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>CHEMBL2166398</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>Inhibition of human MEK1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>CHEMBL119385</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>O=c1ncn2nc(Sc3ccc(F)cc3F)ccc2c1-c1c(Cl)cccc1Cl</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>436.27</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>4</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4</v>
-      </c>
-      <c r="L116" t="n">
-        <v>4</v>
-      </c>
-      <c r="M116" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q116" t="n">
-        <v>5</v>
-      </c>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>CHEMBL2027420</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>Inhibition of Mek1 at 2 uM</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>CHEMBL369622</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>c1ccc(C[n+]2c[nH]c3ncncc32)cc1</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>c1ccc(C[n+]2c[nH]c3ncncc32)cc1</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>211.25</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2</v>
-      </c>
-      <c r="K117" t="n">
-        <v>3</v>
-      </c>
-      <c r="L117" t="n">
-        <v>3</v>
-      </c>
-      <c r="M117" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q117" t="n">
-        <v>4</v>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>CHEMBL830657</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>Inhibition of human Mitogen activated protein kinase kinase 1 (MEK1) at 30 uM</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>CHEMBL553</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>C#Cc1cccc(Nc2ncnc3cc(OCCOC)c(OCCOC)cc23)c1</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>393.44</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>10</v>
-      </c>
-      <c r="K118" t="n">
-        <v>3</v>
-      </c>
-      <c r="L118" t="n">
-        <v>3</v>
-      </c>
-      <c r="M118" t="n">
-        <v>74.73</v>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q118" t="n">
-        <v>7</v>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>CHEMBL3761586</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>Inhibition of MAP2K1 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>CHEMBL3359125</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)oc2cc(NCCOc3no[n+]([O-])c3S(=O)(=O)c3ccccc3)ccc12</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Cc1cc(=O)oc2cc(NCCOc3no[n+]([O-])c3S(=O)(=O)c3ccccc3)ccc12</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>443.44</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>9</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7</v>
-      </c>
-      <c r="K119" t="n">
-        <v>4</v>
-      </c>
-      <c r="L119" t="n">
-        <v>4</v>
-      </c>
-      <c r="M119" t="n">
-        <v>138.58</v>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q119" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>CHEMBL3381908</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK-1 (unknown origin) at 5 uM after 120 mins by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>CHEMBL98178</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc(S/C(N)=C(C#N)/C(C#N)=C(\N)Sc2ccc(NC(C)=O)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc(S/C(N)=C(C#N)/C(C#N)=C(\N)Sc2ccc(NC(C)=O)cc2)cc1</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>464.58</v>
-      </c>
-      <c r="H120" t="n">
-        <v>4</v>
-      </c>
-      <c r="I120" t="n">
-        <v>8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>7</v>
-      </c>
-      <c r="K120" t="n">
-        <v>2</v>
-      </c>
-      <c r="L120" t="n">
-        <v>2</v>
-      </c>
-      <c r="M120" t="n">
-        <v>157.82</v>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P120" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q120" t="n">
-        <v>0</v>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>CHEMBL711123</t>
-        </is>
-      </c>
-      <c r="S120" t="inlineStr">
-        <is>
-          <t>Non-competitive inhibition of the dual specificity kinase MEK at the concentration 10 uM</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>CHEMBL4460272</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>c1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cc(N2CCOCC2)n1</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>381.44</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>7</v>
-      </c>
-      <c r="J121" t="n">
-        <v>4</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5</v>
-      </c>
-      <c r="L121" t="n">
-        <v>3</v>
-      </c>
-      <c r="M121" t="n">
-        <v>85.39</v>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q121" t="n">
-        <v>7</v>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>CHEMBL4331991</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>Inhibition of MKK1 (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>CHEMBL1794059</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(N/C=C2\C(=O)Nc3ccccc32)c1</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1cccc(N/C=C2\C(=O)Nc3ccccc32)c1</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>315.35</v>
-      </c>
-      <c r="H122" t="n">
-        <v>3</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3</v>
-      </c>
-      <c r="K122" t="n">
-        <v>3</v>
-      </c>
-      <c r="L122" t="n">
-        <v>2</v>
-      </c>
-      <c r="M122" t="n">
-        <v>101.29</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P122" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q122" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>CHEMBL1909378</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(-c2nc(-c3ccccn3)c(-c3ccc4c(c3)OCO4)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(-c2nc(-c3ccccn3)c(-c3ccc4c(c3)OCO4)[nH]2)cc1</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5</v>
-      </c>
-      <c r="J123" t="n">
-        <v>4</v>
-      </c>
-      <c r="K123" t="n">
-        <v>5</v>
-      </c>
-      <c r="L123" t="n">
-        <v>4</v>
-      </c>
-      <c r="M123" t="n">
-        <v>103.12</v>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="R123" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>CHEMBL191105</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1c(-c2nonc2N)nc2cnccc21</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1c(-c2nonc2N)nc2cnccc21</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>287.33</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>7</v>
-      </c>
-      <c r="J124" t="n">
-        <v>5</v>
-      </c>
-      <c r="K124" t="n">
-        <v>3</v>
-      </c>
-      <c r="L124" t="n">
-        <v>3</v>
-      </c>
-      <c r="M124" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q124" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>CHEMBL220243</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>0</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>COC(=O)c1cncc(/C=C/c2c(C)cc(O)cc2C)c1</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>COC(=O)c1cncc(/C=C/c2c(C)cc(O)cc2C)c1</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>283.33</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>4</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>2</v>
-      </c>
-      <c r="L125" t="n">
-        <v>2</v>
-      </c>
-      <c r="M125" t="n">
-        <v>59.42</v>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S125" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>CHEMBL261849</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>366.42</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>7</v>
-      </c>
-      <c r="J126" t="n">
-        <v>7</v>
-      </c>
-      <c r="K126" t="n">
-        <v>3</v>
-      </c>
-      <c r="L126" t="n">
-        <v>3</v>
-      </c>
-      <c r="M126" t="n">
-        <v>105.51</v>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>CHEMBL463931</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>548.67</v>
-      </c>
-      <c r="H127" t="n">
-        <v>4</v>
-      </c>
-      <c r="I127" t="n">
-        <v>8</v>
-      </c>
-      <c r="J127" t="n">
-        <v>8</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5</v>
-      </c>
-      <c r="L127" t="n">
-        <v>4</v>
-      </c>
-      <c r="M127" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q127" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S127" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>CHEMBL477978</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CCCCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Cc1ccc(C(=O)NC2CCCCC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>390.53</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2</v>
-      </c>
-      <c r="J128" t="n">
-        <v>6</v>
-      </c>
-      <c r="K128" t="n">
-        <v>4</v>
-      </c>
-      <c r="L128" t="n">
-        <v>2</v>
-      </c>
-      <c r="M128" t="n">
-        <v>58.2</v>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S128" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>CHEMBL513330</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Clc1ccc(CNc2nccc(-c3cnn4ncccc34)n2)cc1</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>336.79</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>4</v>
-      </c>
-      <c r="K129" t="n">
-        <v>4</v>
-      </c>
-      <c r="L129" t="n">
-        <v>4</v>
-      </c>
-      <c r="M129" t="n">
-        <v>68</v>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q129" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
